--- a/EV_Car_Sales_data.xlsx
+++ b/EV_Car_Sales_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HbgUniv\Spring2016\anly50050\project\ANLY_500_50_TESLA_Project_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suparna\OneDrive - Harrisburg University of Science and Technology\ANLY 500\ANLY_500_50_TESLA_Project_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>EV Car Sales 2015</t>
   </si>
@@ -34,11 +34,17 @@
   <si>
     <t>EV Car Sales 2014</t>
   </si>
+  <si>
+    <t>EV Cal Sales 2013</t>
+  </si>
+  <si>
+    <t>EV Car Sales 2012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,13 +100,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -124,8 +130,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="222250"/>
-          <a:ext cx="7143750" cy="5657850"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7143750" cy="5848350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,6 +260,116 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="2013 Monthly Sales Chart For The Major Plug-In Automakers *Estimated Tesla Numbers have been included in this graph. Tesla Total US Sales Based On Quarterly Disclosures (Q1 &amp; Q2 from filings, Q3 based on shareholder letter, and Q4 based on company estimate of half of sales out of North America) *Fiat 500e estimated based on available data. "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18859500"/>
+          <a:ext cx="7143750" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="2012 Monthly Sales Chart For The Major Plug-In Automakers (click to enlarge) Tesla sold approximately 2,650 Model sedans in 2012 (as per Tesla financials – monthly estimate shown) "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23622000"/>
+          <a:ext cx="7143750" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -333,23 +449,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -385,23 +484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,27 +636,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
